--- a/server/src/main/resources/AccessionList2016.xlsx
+++ b/server/src/main/resources/AccessionList2016.xlsx
@@ -3545,7 +3545,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7:H402"/>
+      <selection pane="bottomLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
